--- a/biology/Écologie/Gabriel_Tallon/Gabriel_Tallon.xlsx
+++ b/biology/Écologie/Gabriel_Tallon/Gabriel_Tallon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Marie Gabriel Tallon, dit Gabriel Tallon (né à Riom le 12 février 1890 et mort à Arles le 24 février 1972) est un ingénieur chimiste qui devint botaniste.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque la Compagnie Alais, Froges &amp; Camargue (devenue plus tard Péchiney) cède la jouissance de l'étang de Vaccarès et des étangs des Impériaux à la Société d'acclimatation, elle propose, Gabriel Tallon, son ingénieur-chimiste, accidenté du travail, à la direction de la Réserve naturelle. Il occupera ce poste de la création en 1928 à 1940.
-Il créa donc en 1928 la Réserve zoologique et botanique de Camargue (renommée Réserve naturelle de Camargue), pour préserver une grande partie du territoire naturel de la Camargue[1].
+Il créa donc en 1928 la Réserve zoologique et botanique de Camargue (renommée Réserve naturelle de Camargue), pour préserver une grande partie du territoire naturel de la Camargue.
 Il est, en 1930, l'un des membres fondateurs de la Station internationale de géobotanique méditerranéenne et alpine de Montpellier.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Isoetion en Costière nîmoise, avec René Molinier, Bull. Soc. bot. France, t. 95, p. 343-353, 1948
 La végétation de la Crau (Basse-Provence), avec René Molinier, Paris, Librairie générale de l'enseignement, 1950, 111 p.
